--- a/data/Participants.xlsx
+++ b/data/Participants.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MAS\BarcodeGen\Xing\qrcodegen\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +75,6 @@
     <t>Nirmaana</t>
   </si>
   <si>
-    <t>dharmelin@shoalhaven.net.au</t>
-  </si>
-  <si>
     <t>Sanka</t>
   </si>
   <si>
@@ -85,45 +90,30 @@
     <t>PM</t>
   </si>
   <si>
-    <t>neville@idealfast.com.au</t>
-  </si>
-  <si>
     <t>nelan</t>
   </si>
   <si>
     <t>EX</t>
   </si>
   <si>
-    <t>speakos@hotmail.com</t>
-  </si>
-  <si>
     <t>Poorna</t>
   </si>
   <si>
     <t>AW</t>
   </si>
   <si>
-    <t>markdelcuore@gmail.com</t>
-  </si>
-  <si>
     <t>Suji</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>pauls@homemail.com.au</t>
-  </si>
-  <si>
     <t>Charana</t>
   </si>
   <si>
     <t>RE</t>
   </si>
   <si>
-    <t>herrimanscott@gmail.com</t>
-  </si>
-  <si>
     <t>Lasa</t>
   </si>
   <si>
@@ -140,28 +130,53 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>rusaa!ewe@</t>
+  </si>
+  <si>
+    <t>dsdf@ade</t>
+  </si>
+  <si>
+    <t>egfryt@</t>
+  </si>
+  <si>
+    <t>rusanka123@gmail.com</t>
+  </si>
+  <si>
+    <t>rusiru.2016370@iit.ac.lk</t>
+  </si>
+  <si>
+    <t>longasspanda6teen@gmail.com</t>
+  </si>
+  <si>
+    <t>162690.infinity@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,39 +184,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -391,23 +414,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="24.0"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,12 +479,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>12345.0</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -468,42 +496,42 @@
         <v>17</v>
       </c>
       <c r="F2" s="1">
-        <v>7.72656963E8</v>
+        <v>772656963</v>
       </c>
       <c r="G2" s="1">
-        <v>7.72656963E8</v>
+        <v>772656963</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>54566</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>54566.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -512,33 +540,33 @@
         <v>17</v>
       </c>
       <c r="F3" s="1">
-        <v>7.72656967E8</v>
+        <v>772656967</v>
       </c>
       <c r="G3" s="1">
-        <v>7.72656967E8</v>
+        <v>772656967</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="K3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>45423.0</v>
+        <v>45423</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -547,33 +575,33 @@
         <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>7.726569639E9</v>
+        <v>7726569639</v>
       </c>
       <c r="G4" s="1">
-        <v>7.726569639E9</v>
+        <v>7726569639</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>54545.0</v>
+        <v>54545</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -582,33 +610,33 @@
         <v>17</v>
       </c>
       <c r="F5" s="1">
-        <v>7.726569638E9</v>
+        <v>7726569638</v>
       </c>
       <c r="G5" s="1">
-        <v>7.726569638E9</v>
+        <v>7726569638</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>45424.0</v>
+        <v>45424</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -617,33 +645,33 @@
         <v>17</v>
       </c>
       <c r="F6" s="1">
-        <v>7.726569639E9</v>
+        <v>7726569639</v>
       </c>
       <c r="G6" s="1">
-        <v>7.726569639E9</v>
+        <v>7726569639</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
-        <v>45452.0</v>
+        <v>45452</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -652,33 +680,33 @@
         <v>17</v>
       </c>
       <c r="F7" s="1">
-        <v>7.72656963E9</v>
+        <v>7726569630</v>
       </c>
       <c r="G7" s="1">
-        <v>7.72656963E9</v>
+        <v>7726569630</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>5457.0</v>
+        <v>5457</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -687,30 +715,33 @@
         <v>17</v>
       </c>
       <c r="F8" s="1">
-        <v>7.726569636E9</v>
+        <v>7726569636</v>
       </c>
       <c r="G8" s="1">
-        <v>7.726569636E9</v>
+        <v>7726569636</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="I8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>454578.0</v>
+        <v>454578</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -719,39 +750,42 @@
         <v>17</v>
       </c>
       <c r="F9" s="1">
-        <v>7.726569635E9</v>
+        <v>7726569635</v>
       </c>
       <c r="G9" s="1">
-        <v>7.726569635E9</v>
+        <v>7726569635</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>45755.0</v>
+        <v>45755</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -760,22 +794,37 @@
         <v>17</v>
       </c>
       <c r="F10" s="1">
-        <v>7.726569635E9</v>
+        <v>7726569635</v>
       </c>
       <c r="G10" s="1">
-        <v>7.726569635E9</v>
+        <v>7726569635</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I10" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="K10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="H6" r:id="rId8"/>
+    <hyperlink ref="H7" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/data/Participants.xlsx
+++ b/data/Participants.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -132,15 +132,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>rusaa!ewe@</t>
-  </si>
-  <si>
-    <t>dsdf@ade</t>
-  </si>
-  <si>
-    <t>egfryt@</t>
-  </si>
-  <si>
     <t>rusanka123@gmail.com</t>
   </si>
   <si>
@@ -151,6 +142,12 @@
   </si>
   <si>
     <t>162690.infinity@gmail.com</t>
+  </si>
+  <si>
+    <t>sankak@masholdings.com</t>
+  </si>
+  <si>
+    <t>rusiru@fh.technology</t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -435,7 +432,7 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +499,7 @@
         <v>772656963</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
@@ -546,7 +543,7 @@
         <v>772656967</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -581,7 +578,7 @@
         <v>7726569639</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -616,7 +613,7 @@
         <v>7726569638</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
@@ -651,7 +648,7 @@
         <v>7726569639</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
@@ -686,7 +683,7 @@
         <v>7726569630</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1">
         <v>7</v>
@@ -721,7 +718,7 @@
         <v>7726569636</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
@@ -756,7 +753,7 @@
         <v>7726569635</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -800,7 +797,7 @@
         <v>7726569635</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>

--- a/data/Participants.xlsx
+++ b/data/Participants.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MAS\BarcodeGen\Xing\qrcodegen\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\MAS\QR\QRCodeGenerateAndSendEmailOnOutlook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Award winner True/false</t>
   </si>
   <si>
-    <t>Award name</t>
-  </si>
-  <si>
-    <t>Award Category</t>
-  </si>
-  <si>
-    <t>Award Distributors</t>
-  </si>
-  <si>
     <t>Sanka kodda</t>
   </si>
   <si>
@@ -75,15 +66,6 @@
     <t>Nirmaana</t>
   </si>
   <si>
-    <t>Sanka</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>wani</t>
-  </si>
-  <si>
     <t>jane</t>
   </si>
   <si>
@@ -148,12 +130,15 @@
   </si>
   <si>
     <t>rusiru@fh.technology</t>
+  </si>
+  <si>
+    <t>Encrypted Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -423,13 +408,14 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
@@ -467,30 +453,26 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>12345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>772656963</v>
@@ -499,7 +481,7 @@
         <v>772656963</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
@@ -510,31 +492,25 @@
       <c r="K2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>54566</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>772656967</v>
@@ -543,7 +519,7 @@
         <v>772656967</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1">
         <v>4</v>
@@ -557,19 +533,19 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>45423</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>7726569639</v>
@@ -578,7 +554,7 @@
         <v>7726569639</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -592,19 +568,19 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>54545</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>7726569638</v>
@@ -613,7 +589,7 @@
         <v>7726569638</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1">
         <v>6</v>
@@ -627,19 +603,19 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>45424</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>7726569639</v>
@@ -648,7 +624,7 @@
         <v>7726569639</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
@@ -662,19 +638,19 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>45452</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>7726569630</v>
@@ -683,7 +659,7 @@
         <v>7726569630</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>7</v>
@@ -697,19 +673,19 @@
     </row>
     <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1">
         <v>5457</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1">
         <v>7726569636</v>
@@ -718,7 +694,7 @@
         <v>7726569636</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
@@ -732,19 +708,19 @@
     </row>
     <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>454578</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>7726569635</v>
@@ -753,7 +729,7 @@
         <v>7726569635</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -764,31 +740,25 @@
       <c r="K9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>45755</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>7726569635</v>
@@ -797,7 +767,7 @@
         <v>7726569635</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
